--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="62">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -52,6 +52,9 @@
     <t>2020-12-26</t>
   </si>
   <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
     <t>01 Mar -- 07 Mar 2020</t>
   </si>
   <si>
@@ -188,6 +191,12 @@
   </si>
   <si>
     <t>10 Jan -- 16 Jan 2021</t>
+  </si>
+  <si>
+    <t>17 Jan -- 23 Jan 2021</t>
+  </si>
+  <si>
+    <t>24 Jan -- 30 Jan 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -548,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>14.57</v>
@@ -606,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>0.63</v>
@@ -623,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>66.56999999999999</v>
@@ -635,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -643,7 +652,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>135</v>
@@ -655,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>137.29</v>
@@ -675,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -683,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>133.57</v>
@@ -695,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -703,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>129.29</v>
@@ -715,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>96.29000000000001</v>
@@ -735,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -743,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>88.43000000000001</v>
@@ -755,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>72.29000000000001</v>
@@ -775,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -783,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>61.86</v>
@@ -795,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -803,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>49.71</v>
@@ -815,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -823,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>60.29</v>
@@ -835,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -843,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>53.57</v>
@@ -855,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -863,7 +872,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>67.86</v>
@@ -875,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -883,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>74.43000000000001</v>
@@ -895,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -903,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>111</v>
@@ -915,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -923,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>122.43</v>
@@ -935,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -943,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>149.14</v>
@@ -955,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -963,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>175.29</v>
@@ -975,7 +984,7 @@
         <v>86.67</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -983,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>192</v>
@@ -995,7 +1004,7 @@
         <v>104.26</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1003,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>215</v>
@@ -1015,7 +1024,7 @@
         <v>116.73</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1023,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>214</v>
@@ -1035,7 +1044,7 @@
         <v>80.88</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1043,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>183.14</v>
@@ -1055,7 +1064,7 @@
         <v>55.74</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1063,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>175.43</v>
@@ -1075,7 +1084,7 @@
         <v>19.62</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1083,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>144.29</v>
@@ -1095,7 +1104,7 @@
         <v>26.38</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1103,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>122.43</v>
@@ -1115,7 +1124,7 @@
         <v>56.16</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1123,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>113.57</v>
@@ -1135,7 +1144,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1143,7 +1152,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>125</v>
@@ -1155,7 +1164,7 @@
         <v>1.51</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1163,7 +1172,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>155.57</v>
@@ -1175,7 +1184,7 @@
         <v>44.64</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1183,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>182.29</v>
@@ -1195,7 +1204,7 @@
         <v>82.44</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1203,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>193.14</v>
@@ -1215,7 +1224,7 @@
         <v>76.75</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1223,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>221</v>
@@ -1235,7 +1244,7 @@
         <v>66.23999999999999</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1243,7 +1252,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>261.43</v>
@@ -1255,7 +1264,7 @@
         <v>117.46</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1263,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>313.86</v>
@@ -1275,7 +1284,7 @@
         <v>152.34</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1283,7 +1292,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>363.43</v>
@@ -1295,7 +1304,7 @@
         <v>209.39</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1303,7 +1312,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>424</v>
@@ -1315,7 +1324,7 @@
         <v>247.39</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1323,7 +1332,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38">
         <v>457.43</v>
@@ -1335,7 +1344,7 @@
         <v>263.37</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1343,7 +1352,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>470.43</v>
@@ -1355,7 +1364,7 @@
         <v>254.74</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1363,7 +1372,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>451.29</v>
@@ -1375,7 +1384,7 @@
         <v>212.04</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1383,7 +1392,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>361.43</v>
@@ -1395,7 +1404,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1403,7 +1412,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42">
         <v>276.14</v>
@@ -1415,7 +1424,7 @@
         <v>37.09</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1423,7 +1432,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>214.14</v>
@@ -1435,7 +1444,7 @@
         <v>130.4</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1443,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>160.86</v>
@@ -1455,7 +1464,7 @@
         <v>193.86</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1463,7 +1472,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45">
         <v>123.43</v>
@@ -1475,7 +1484,7 @@
         <v>230.4</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J45">
         <v>230.4</v>
@@ -1489,13 +1498,25 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C46">
+        <v>94.56999999999999</v>
       </c>
       <c r="D46">
         <v>354.11</v>
       </c>
+      <c r="E46">
+        <v>259.54</v>
+      </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="J46">
+        <v>244.97</v>
+      </c>
+      <c r="K46">
+        <v>230.55</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1503,13 +1524,64 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D47">
         <v>311.49</v>
       </c>
       <c r="F47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
         <v>58</v>
+      </c>
+      <c r="D48">
+        <v>246.46</v>
+      </c>
+      <c r="F48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48">
+        <v>0.6</v>
+      </c>
+      <c r="H48">
+        <v>170.11</v>
+      </c>
+      <c r="I48">
+        <v>160.87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49">
+        <v>213.33</v>
+      </c>
+      <c r="F49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50">
+        <v>175.47</v>
+      </c>
+      <c r="F50" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="63">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>2020-12-26</t>
+  </si>
+  <si>
+    <t>2021-01-02</t>
   </si>
   <si>
     <t>2021-01-09</t>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>14.57</v>
@@ -615,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>0.63</v>
@@ -632,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>66.56999999999999</v>
@@ -644,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -652,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>135</v>
@@ -664,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -672,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>137.29</v>
@@ -684,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>133.57</v>
@@ -704,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>129.29</v>
@@ -724,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -732,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>96.29000000000001</v>
@@ -744,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -752,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>88.43000000000001</v>
@@ -764,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -772,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>72.29000000000001</v>
@@ -784,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>61.86</v>
@@ -804,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>49.71</v>
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -832,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>60.29</v>
@@ -844,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -852,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>53.57</v>
@@ -864,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -872,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>67.86</v>
@@ -884,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -892,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>74.43000000000001</v>
@@ -904,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -912,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>111</v>
@@ -924,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -932,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>122.43</v>
@@ -944,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -952,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>149.14</v>
@@ -964,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -972,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>175.29</v>
@@ -984,7 +987,7 @@
         <v>86.67</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -992,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>192</v>
@@ -1004,7 +1007,7 @@
         <v>104.26</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1012,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>215</v>
@@ -1024,7 +1027,7 @@
         <v>116.73</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1032,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>214</v>
@@ -1044,7 +1047,7 @@
         <v>80.88</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1052,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>183.14</v>
@@ -1064,7 +1067,7 @@
         <v>55.74</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1072,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>175.43</v>
@@ -1084,7 +1087,7 @@
         <v>19.62</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1092,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>144.29</v>
@@ -1104,7 +1107,7 @@
         <v>26.38</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1112,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>122.43</v>
@@ -1124,7 +1127,7 @@
         <v>56.16</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1132,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>113.57</v>
@@ -1144,7 +1147,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1152,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>125</v>
@@ -1164,7 +1167,7 @@
         <v>1.51</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1172,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>155.57</v>
@@ -1184,7 +1187,7 @@
         <v>44.64</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1192,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>182.29</v>
@@ -1204,7 +1207,7 @@
         <v>82.44</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1212,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>193.14</v>
@@ -1224,7 +1227,7 @@
         <v>76.75</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1232,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>221</v>
@@ -1244,7 +1247,7 @@
         <v>66.23999999999999</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1252,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>261.43</v>
@@ -1264,7 +1267,7 @@
         <v>117.46</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1272,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>313.86</v>
@@ -1284,7 +1287,7 @@
         <v>152.34</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1292,7 +1295,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>363.43</v>
@@ -1304,7 +1307,7 @@
         <v>209.39</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1312,7 +1315,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>424</v>
@@ -1324,7 +1327,7 @@
         <v>247.39</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1332,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>457.43</v>
@@ -1344,7 +1347,7 @@
         <v>263.37</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1352,7 +1355,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>470.43</v>
@@ -1364,7 +1367,7 @@
         <v>254.74</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1372,7 +1375,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>451.29</v>
@@ -1384,7 +1387,7 @@
         <v>212.04</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1392,7 +1395,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>361.43</v>
@@ -1404,7 +1407,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1412,7 +1415,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>276.14</v>
@@ -1424,7 +1427,7 @@
         <v>37.09</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1432,7 +1435,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <v>214.14</v>
@@ -1444,7 +1447,7 @@
         <v>130.4</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1452,7 +1455,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44">
         <v>160.86</v>
@@ -1464,7 +1467,7 @@
         <v>193.86</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1472,7 +1475,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45">
         <v>123.43</v>
@@ -1484,7 +1487,7 @@
         <v>230.4</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J45">
         <v>230.4</v>
@@ -1498,7 +1501,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46">
         <v>94.56999999999999</v>
@@ -1510,7 +1513,7 @@
         <v>259.54</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J46">
         <v>244.97</v>
@@ -1524,13 +1527,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D47">
         <v>311.49</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1540,23 +1543,35 @@
       <c r="B48" t="s">
         <v>58</v>
       </c>
+      <c r="C48">
+        <v>94.56999999999999</v>
+      </c>
       <c r="D48">
-        <v>246.46</v>
+        <v>269.17</v>
+      </c>
+      <c r="E48">
+        <v>174.6</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G48">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="H48">
-        <v>170.11</v>
+        <v>115.44</v>
       </c>
       <c r="I48">
-        <v>160.87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>142.48</v>
+      </c>
+      <c r="J48">
+        <v>221.51</v>
+      </c>
+      <c r="K48">
+        <v>215.24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -1564,13 +1579,13 @@
         <v>59</v>
       </c>
       <c r="D49">
-        <v>213.33</v>
+        <v>246.46</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -1578,10 +1593,61 @@
         <v>60</v>
       </c>
       <c r="D50">
+        <v>213.33</v>
+      </c>
+      <c r="F50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51">
+        <v>246.46</v>
+      </c>
+      <c r="F51" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51">
+        <v>0.6</v>
+      </c>
+      <c r="H51">
+        <v>170.11</v>
+      </c>
+      <c r="I51">
+        <v>160.87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52">
+        <v>213.33</v>
+      </c>
+      <c r="F52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53">
         <v>175.47</v>
       </c>
-      <c r="F50" t="s">
-        <v>61</v>
+      <c r="F53" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -58,6 +58,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>01 Mar -- 07 Mar 2020</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>24 Jan -- 30 Jan 2021</t>
+  </si>
+  <si>
+    <t>31 Jan -- 06 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>14.57</v>
@@ -618,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>0.63</v>
@@ -635,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>66.56999999999999</v>
@@ -647,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -655,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>135</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -675,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>137.29</v>
@@ -687,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -695,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>133.57</v>
@@ -707,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -715,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>129.29</v>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -735,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>96.29000000000001</v>
@@ -747,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -755,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>88.43000000000001</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -775,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>72.29000000000001</v>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>61.86</v>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>49.71</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>60.29</v>
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -855,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>53.57</v>
@@ -867,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -875,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>67.86</v>
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -895,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>74.43000000000001</v>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -915,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>111</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -935,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>122.43</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>149.14</v>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -975,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>175.29</v>
@@ -987,7 +993,7 @@
         <v>86.67</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -995,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>192</v>
@@ -1007,7 +1013,7 @@
         <v>104.26</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1015,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>215</v>
@@ -1027,7 +1033,7 @@
         <v>116.73</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1035,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>214</v>
@@ -1047,7 +1053,7 @@
         <v>80.88</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1055,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>183.14</v>
@@ -1067,7 +1073,7 @@
         <v>55.74</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1075,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>175.43</v>
@@ -1087,7 +1093,7 @@
         <v>19.62</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1095,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>144.29</v>
@@ -1107,7 +1113,7 @@
         <v>26.38</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1115,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>122.43</v>
@@ -1127,7 +1133,7 @@
         <v>56.16</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1135,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>113.57</v>
@@ -1147,7 +1153,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1155,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>125</v>
@@ -1167,7 +1173,7 @@
         <v>1.51</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1175,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>155.57</v>
@@ -1187,7 +1193,7 @@
         <v>44.64</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1195,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>182.29</v>
@@ -1207,7 +1213,7 @@
         <v>82.44</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1215,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>193.14</v>
@@ -1227,7 +1233,7 @@
         <v>76.75</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1235,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>221</v>
@@ -1247,7 +1253,7 @@
         <v>66.23999999999999</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1255,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>261.43</v>
@@ -1267,7 +1273,7 @@
         <v>117.46</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1275,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>313.86</v>
@@ -1287,7 +1293,7 @@
         <v>152.34</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1295,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>363.43</v>
@@ -1307,7 +1313,7 @@
         <v>209.39</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1315,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>424</v>
@@ -1327,7 +1333,7 @@
         <v>247.39</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1335,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>457.43</v>
@@ -1347,7 +1353,7 @@
         <v>263.37</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1355,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>470.43</v>
@@ -1367,7 +1373,7 @@
         <v>254.74</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1375,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>451.29</v>
@@ -1387,7 +1393,7 @@
         <v>212.04</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1395,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>361.43</v>
@@ -1407,7 +1413,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1415,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>276.14</v>
@@ -1427,7 +1433,7 @@
         <v>37.09</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1435,7 +1441,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>214.14</v>
@@ -1447,7 +1453,7 @@
         <v>130.4</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1455,7 +1461,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>160.86</v>
@@ -1467,7 +1473,7 @@
         <v>193.86</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1475,7 +1481,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45">
         <v>123.43</v>
@@ -1487,7 +1493,7 @@
         <v>230.4</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J45">
         <v>230.4</v>
@@ -1501,7 +1507,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46">
         <v>94.56999999999999</v>
@@ -1513,7 +1519,7 @@
         <v>259.54</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J46">
         <v>244.97</v>
@@ -1527,13 +1533,25 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <v>88.14</v>
       </c>
       <c r="D47">
         <v>311.49</v>
       </c>
+      <c r="E47">
+        <v>223.35</v>
+      </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J47">
+        <v>237.76</v>
+      </c>
+      <c r="K47">
+        <v>238.17</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1541,7 +1559,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48">
         <v>94.56999999999999</v>
@@ -1553,7 +1571,7 @@
         <v>174.6</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G48">
         <v>0.43</v>
@@ -1565,52 +1583,70 @@
         <v>142.48</v>
       </c>
       <c r="J48">
-        <v>221.51</v>
+        <v>221.97</v>
       </c>
       <c r="K48">
-        <v>215.24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>224.78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>88.14</v>
       </c>
       <c r="D49">
         <v>246.46</v>
       </c>
+      <c r="E49">
+        <v>158.32</v>
+      </c>
       <c r="F49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J49">
+        <v>209.24</v>
+      </c>
+      <c r="K49">
+        <v>215.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D50">
         <v>213.33</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>88.14</v>
       </c>
       <c r="D51">
         <v>246.46</v>
       </c>
+      <c r="E51">
+        <v>158.32</v>
+      </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G51">
         <v>0.6</v>
@@ -1621,33 +1657,90 @@
       <c r="I51">
         <v>160.87</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51">
+        <v>200.75</v>
+      </c>
+      <c r="K51">
+        <v>209.73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D52">
         <v>213.33</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D53">
         <v>175.47</v>
       </c>
       <c r="F53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54">
+        <v>210.17</v>
+      </c>
+      <c r="F54" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54">
+        <v>1.5</v>
+      </c>
+      <c r="H54">
+        <v>320.32</v>
+      </c>
+      <c r="I54">
+        <v>282.34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
         <v>62</v>
+      </c>
+      <c r="D55">
+        <v>186.56</v>
+      </c>
+      <c r="F55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56">
+        <v>164.24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
     <t>01 Mar -- 07 Mar 2020</t>
   </si>
   <si>
@@ -208,7 +211,13 @@
     <t>31 Jan -- 06 Feb 2021</t>
   </si>
   <si>
+    <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
     <t>KNN</t>
+  </si>
+  <si>
+    <t>GBM</t>
   </si>
 </sst>
 </file>
@@ -566,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>14.57</v>
@@ -624,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>0.63</v>
@@ -641,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>66.56999999999999</v>
@@ -653,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -661,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>135</v>
@@ -673,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>137.29</v>
@@ -693,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -701,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>133.57</v>
@@ -713,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -721,7 +730,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>129.29</v>
@@ -733,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -741,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>96.29000000000001</v>
@@ -753,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>88.43000000000001</v>
@@ -773,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>72.29000000000001</v>
@@ -793,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>61.86</v>
@@ -813,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>49.71</v>
@@ -833,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -841,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>60.29</v>
@@ -853,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -861,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>53.57</v>
@@ -873,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -881,7 +890,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>67.86</v>
@@ -893,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -901,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>74.43000000000001</v>
@@ -913,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>111</v>
@@ -933,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,7 +950,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>122.43</v>
@@ -953,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>149.14</v>
@@ -973,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,7 +990,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>175.29</v>
@@ -993,7 +1002,7 @@
         <v>86.67</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>192</v>
@@ -1013,7 +1022,7 @@
         <v>104.26</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1021,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>215</v>
@@ -1033,7 +1042,7 @@
         <v>116.73</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1041,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>214</v>
@@ -1053,7 +1062,7 @@
         <v>80.88</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1061,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>183.14</v>
@@ -1073,7 +1082,7 @@
         <v>55.74</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1081,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>175.43</v>
@@ -1093,7 +1102,7 @@
         <v>19.62</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1101,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>144.29</v>
@@ -1113,7 +1122,7 @@
         <v>26.38</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1121,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>122.43</v>
@@ -1133,7 +1142,7 @@
         <v>56.16</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1141,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>113.57</v>
@@ -1153,7 +1162,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1161,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>125</v>
@@ -1173,7 +1182,7 @@
         <v>1.51</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1181,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>155.57</v>
@@ -1193,7 +1202,7 @@
         <v>44.64</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1201,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>182.29</v>
@@ -1213,7 +1222,7 @@
         <v>82.44</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1221,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>193.14</v>
@@ -1233,7 +1242,7 @@
         <v>76.75</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1241,7 +1250,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>221</v>
@@ -1253,7 +1262,7 @@
         <v>66.23999999999999</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1261,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>261.43</v>
@@ -1273,7 +1282,7 @@
         <v>117.46</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1281,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>313.86</v>
@@ -1293,7 +1302,7 @@
         <v>152.34</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1301,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>363.43</v>
@@ -1313,7 +1322,7 @@
         <v>209.39</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1321,7 +1330,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>424</v>
@@ -1333,7 +1342,7 @@
         <v>247.39</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1341,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>457.43</v>
@@ -1353,7 +1362,7 @@
         <v>263.37</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1361,7 +1370,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>470.43</v>
@@ -1373,7 +1382,7 @@
         <v>254.74</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1381,7 +1390,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>451.29</v>
@@ -1393,7 +1402,7 @@
         <v>212.04</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1401,7 +1410,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>361.43</v>
@@ -1413,7 +1422,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1421,7 +1430,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>276.14</v>
@@ -1433,7 +1442,7 @@
         <v>37.09</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1441,7 +1450,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>214.14</v>
@@ -1453,7 +1462,7 @@
         <v>130.4</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1461,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>160.86</v>
@@ -1473,7 +1482,7 @@
         <v>193.86</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1481,7 +1490,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>123.43</v>
@@ -1493,7 +1502,7 @@
         <v>230.4</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J45">
         <v>230.4</v>
@@ -1507,7 +1516,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <v>94.56999999999999</v>
@@ -1519,7 +1528,7 @@
         <v>259.54</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J46">
         <v>244.97</v>
@@ -1533,7 +1542,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47">
         <v>88.14</v>
@@ -1545,7 +1554,7 @@
         <v>223.35</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J47">
         <v>237.76</v>
@@ -1559,7 +1568,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48">
         <v>94.56999999999999</v>
@@ -1571,7 +1580,7 @@
         <v>174.6</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G48">
         <v>0.43</v>
@@ -1594,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49">
         <v>88.14</v>
@@ -1606,7 +1615,7 @@
         <v>158.32</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J49">
         <v>209.24</v>
@@ -1620,13 +1629,25 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C50">
+        <v>82.43000000000001</v>
       </c>
       <c r="D50">
         <v>213.33</v>
       </c>
+      <c r="E50">
+        <v>130.9</v>
+      </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J50">
+        <v>196.18</v>
+      </c>
+      <c r="K50">
+        <v>206.26</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1634,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51">
         <v>88.14</v>
@@ -1646,7 +1667,7 @@
         <v>158.32</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G51">
         <v>0.6</v>
@@ -1658,10 +1679,10 @@
         <v>160.87</v>
       </c>
       <c r="J51">
-        <v>200.75</v>
+        <v>190.77</v>
       </c>
       <c r="K51">
-        <v>209.73</v>
+        <v>202.45</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1669,13 +1690,25 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C52">
+        <v>82.43000000000001</v>
       </c>
       <c r="D52">
         <v>213.33</v>
       </c>
+      <c r="E52">
+        <v>130.9</v>
+      </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J52">
+        <v>183.29</v>
+      </c>
+      <c r="K52">
+        <v>196.99</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1683,13 +1716,13 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D53">
         <v>175.47</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1697,13 +1730,19 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C54">
+        <v>82.43000000000001</v>
       </c>
       <c r="D54">
         <v>210.17</v>
       </c>
+      <c r="E54">
+        <v>127.74</v>
+      </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G54">
         <v>1.5</v>
@@ -1713,6 +1752,12 @@
       </c>
       <c r="I54">
         <v>282.34</v>
+      </c>
+      <c r="J54">
+        <v>177.12</v>
+      </c>
+      <c r="K54">
+        <v>192.33</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1720,13 +1765,13 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D55">
         <v>186.56</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1734,13 +1779,64 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D56">
         <v>164.24</v>
       </c>
       <c r="F56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57">
+        <v>0.62</v>
+      </c>
+      <c r="H57">
+        <v>98.79000000000001</v>
+      </c>
+      <c r="I57">
+        <v>81.43000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
         <v>64</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="70">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-01-23</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>01 Mar -- 07 Mar 2020</t>
   </si>
   <si>
@@ -212,6 +215,9 @@
   </si>
   <si>
     <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
+    <t>14 Feb -- 20 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -575,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>14.57</v>
@@ -633,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>0.63</v>
@@ -650,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>66.56999999999999</v>
@@ -662,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,7 +676,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>135</v>
@@ -682,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -690,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>137.29</v>
@@ -702,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -710,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>133.57</v>
@@ -722,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -730,7 +736,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>129.29</v>
@@ -742,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -750,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>96.29000000000001</v>
@@ -762,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -770,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>88.43000000000001</v>
@@ -782,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -790,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>72.29000000000001</v>
@@ -802,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -810,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>61.86</v>
@@ -822,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,7 +836,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>49.71</v>
@@ -842,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>60.29</v>
@@ -862,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>53.57</v>
@@ -882,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -890,7 +896,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>67.86</v>
@@ -902,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -910,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>74.43000000000001</v>
@@ -922,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -930,7 +936,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>111</v>
@@ -942,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -950,7 +956,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>122.43</v>
@@ -962,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -970,7 +976,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>149.14</v>
@@ -982,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -990,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>175.29</v>
@@ -1002,7 +1008,7 @@
         <v>86.67</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1010,7 +1016,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>192</v>
@@ -1022,7 +1028,7 @@
         <v>104.26</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1030,7 +1036,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>215</v>
@@ -1042,7 +1048,7 @@
         <v>116.73</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1050,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>214</v>
@@ -1062,7 +1068,7 @@
         <v>80.88</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1070,7 +1076,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>183.14</v>
@@ -1082,7 +1088,7 @@
         <v>55.74</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1090,7 +1096,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>175.43</v>
@@ -1102,7 +1108,7 @@
         <v>19.62</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1110,7 +1116,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>144.29</v>
@@ -1122,7 +1128,7 @@
         <v>26.38</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1130,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>122.43</v>
@@ -1142,7 +1148,7 @@
         <v>56.16</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1150,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>113.57</v>
@@ -1162,7 +1168,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1170,7 +1176,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>125</v>
@@ -1182,7 +1188,7 @@
         <v>1.51</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1190,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>155.57</v>
@@ -1202,7 +1208,7 @@
         <v>44.64</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1210,7 +1216,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>182.29</v>
@@ -1222,7 +1228,7 @@
         <v>82.44</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1230,7 +1236,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>193.14</v>
@@ -1242,7 +1248,7 @@
         <v>76.75</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1250,7 +1256,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>221</v>
@@ -1262,7 +1268,7 @@
         <v>66.23999999999999</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1270,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>261.43</v>
@@ -1282,7 +1288,7 @@
         <v>117.46</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1290,7 +1296,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>313.86</v>
@@ -1302,7 +1308,7 @@
         <v>152.34</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1310,7 +1316,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>363.43</v>
@@ -1322,7 +1328,7 @@
         <v>209.39</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1330,7 +1336,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>424</v>
@@ -1342,7 +1348,7 @@
         <v>247.39</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1350,7 +1356,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>457.43</v>
@@ -1362,7 +1368,7 @@
         <v>263.37</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1370,7 +1376,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>470.43</v>
@@ -1382,7 +1388,7 @@
         <v>254.74</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1390,7 +1396,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>451.29</v>
@@ -1402,7 +1408,7 @@
         <v>212.04</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1410,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>361.43</v>
@@ -1422,7 +1428,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1430,7 +1436,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>276.14</v>
@@ -1442,7 +1448,7 @@
         <v>37.09</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1450,7 +1456,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>214.14</v>
@@ -1462,7 +1468,7 @@
         <v>130.4</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1470,7 +1476,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>160.86</v>
@@ -1482,7 +1488,7 @@
         <v>193.86</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1490,7 +1496,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45">
         <v>123.43</v>
@@ -1502,7 +1508,7 @@
         <v>230.4</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J45">
         <v>230.4</v>
@@ -1516,7 +1522,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>94.56999999999999</v>
@@ -1528,7 +1534,7 @@
         <v>259.54</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J46">
         <v>244.97</v>
@@ -1542,7 +1548,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>88.14</v>
@@ -1554,7 +1560,7 @@
         <v>223.35</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J47">
         <v>237.76</v>
@@ -1568,7 +1574,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48">
         <v>94.56999999999999</v>
@@ -1580,7 +1586,7 @@
         <v>174.6</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>0.43</v>
@@ -1603,7 +1609,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49">
         <v>88.14</v>
@@ -1615,7 +1621,7 @@
         <v>158.32</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J49">
         <v>209.24</v>
@@ -1629,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50">
         <v>82.43000000000001</v>
@@ -1641,7 +1647,7 @@
         <v>130.9</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J50">
         <v>196.18</v>
@@ -1655,7 +1661,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51">
         <v>88.14</v>
@@ -1667,7 +1673,7 @@
         <v>158.32</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>0.6</v>
@@ -1690,7 +1696,7 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52">
         <v>82.43000000000001</v>
@@ -1702,7 +1708,7 @@
         <v>130.9</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J52">
         <v>183.29</v>
@@ -1716,13 +1722,25 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C53">
+        <v>85</v>
       </c>
       <c r="D53">
         <v>175.47</v>
       </c>
+      <c r="E53">
+        <v>90.47</v>
+      </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J53">
+        <v>172.98</v>
+      </c>
+      <c r="K53">
+        <v>186.93</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1730,7 +1748,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54">
         <v>82.43000000000001</v>
@@ -1742,7 +1760,7 @@
         <v>127.74</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <v>1.5</v>
@@ -1754,10 +1772,10 @@
         <v>282.34</v>
       </c>
       <c r="J54">
-        <v>177.12</v>
+        <v>168.45</v>
       </c>
       <c r="K54">
-        <v>192.33</v>
+        <v>183.74</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1765,13 +1783,25 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C55">
+        <v>85</v>
       </c>
       <c r="D55">
         <v>186.56</v>
       </c>
+      <c r="E55">
+        <v>101.56</v>
+      </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J55">
+        <v>162.37</v>
+      </c>
+      <c r="K55">
+        <v>177.9</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1779,13 +1809,13 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D56">
         <v>164.24</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1793,13 +1823,19 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C57">
+        <v>85</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
+      <c r="E57">
+        <v>84</v>
+      </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G57">
         <v>0.62</v>
@@ -1809,6 +1845,12 @@
       </c>
       <c r="I57">
         <v>81.43000000000001</v>
+      </c>
+      <c r="J57">
+        <v>155.84</v>
+      </c>
+      <c r="K57">
+        <v>171.31</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1816,13 +1858,13 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1830,13 +1872,64 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60">
+        <v>58.81</v>
+      </c>
+      <c r="F60" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60">
+        <v>0.04</v>
+      </c>
+      <c r="H60">
+        <v>3.17</v>
+      </c>
+      <c r="I60">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61">
+        <v>96.16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
         <v>67</v>
+      </c>
+      <c r="D62">
+        <v>87.62</v>
+      </c>
+      <c r="F62" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="74">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -67,6 +67,12 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
     <t>01 Mar -- 07 Mar 2020</t>
   </si>
   <si>
@@ -218,6 +224,12 @@
   </si>
   <si>
     <t>14 Feb -- 20 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -581,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>14.57</v>
@@ -639,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G2">
         <v>0.63</v>
@@ -656,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>66.56999999999999</v>
@@ -668,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -676,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>135</v>
@@ -688,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -696,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>137.29</v>
@@ -708,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -716,7 +728,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>133.57</v>
@@ -728,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -736,7 +748,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>129.29</v>
@@ -748,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -756,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>96.29000000000001</v>
@@ -768,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -776,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>88.43000000000001</v>
@@ -788,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -796,7 +808,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>72.29000000000001</v>
@@ -808,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>61.86</v>
@@ -828,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -836,7 +848,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>49.71</v>
@@ -848,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,7 +868,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>60.29</v>
@@ -868,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -876,7 +888,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>53.57</v>
@@ -888,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -896,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>67.86</v>
@@ -908,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -916,7 +928,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>74.43000000000001</v>
@@ -928,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -936,7 +948,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>111</v>
@@ -948,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -956,7 +968,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>122.43</v>
@@ -968,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -976,7 +988,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>149.14</v>
@@ -988,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -996,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>175.29</v>
@@ -1008,7 +1020,7 @@
         <v>86.67</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1016,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>192</v>
@@ -1028,7 +1040,7 @@
         <v>104.26</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1036,7 +1048,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>215</v>
@@ -1048,7 +1060,7 @@
         <v>116.73</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1056,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>214</v>
@@ -1068,7 +1080,7 @@
         <v>80.88</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1076,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>183.14</v>
@@ -1088,7 +1100,7 @@
         <v>55.74</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1096,7 +1108,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>175.43</v>
@@ -1108,7 +1120,7 @@
         <v>19.62</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1116,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>144.29</v>
@@ -1128,7 +1140,7 @@
         <v>26.38</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1136,7 +1148,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>122.43</v>
@@ -1148,7 +1160,7 @@
         <v>56.16</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1156,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>113.57</v>
@@ -1168,7 +1180,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1176,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>125</v>
@@ -1188,7 +1200,7 @@
         <v>1.51</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1196,7 +1208,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>155.57</v>
@@ -1208,7 +1220,7 @@
         <v>44.64</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1216,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>182.29</v>
@@ -1228,7 +1240,7 @@
         <v>82.44</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1236,7 +1248,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>193.14</v>
@@ -1248,7 +1260,7 @@
         <v>76.75</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1256,7 +1268,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>221</v>
@@ -1268,7 +1280,7 @@
         <v>66.23999999999999</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1276,7 +1288,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>261.43</v>
@@ -1288,7 +1300,7 @@
         <v>117.46</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1296,7 +1308,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>313.86</v>
@@ -1308,7 +1320,7 @@
         <v>152.34</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1316,7 +1328,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>363.43</v>
@@ -1328,7 +1340,7 @@
         <v>209.39</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1336,7 +1348,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>424</v>
@@ -1348,7 +1360,7 @@
         <v>247.39</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1356,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>457.43</v>
@@ -1368,7 +1380,7 @@
         <v>263.37</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1376,7 +1388,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39">
         <v>470.43</v>
@@ -1388,7 +1400,7 @@
         <v>254.74</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1396,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>451.29</v>
@@ -1408,7 +1420,7 @@
         <v>212.04</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1416,7 +1428,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>361.43</v>
@@ -1428,7 +1440,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1436,7 +1448,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>276.14</v>
@@ -1448,7 +1460,7 @@
         <v>37.09</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1456,7 +1468,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C43">
         <v>214.14</v>
@@ -1468,7 +1480,7 @@
         <v>130.4</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1476,7 +1488,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C44">
         <v>160.86</v>
@@ -1488,7 +1500,7 @@
         <v>193.86</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1496,7 +1508,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C45">
         <v>123.43</v>
@@ -1508,7 +1520,7 @@
         <v>230.4</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J45">
         <v>230.4</v>
@@ -1522,7 +1534,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C46">
         <v>94.56999999999999</v>
@@ -1534,7 +1546,7 @@
         <v>259.54</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J46">
         <v>244.97</v>
@@ -1548,7 +1560,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C47">
         <v>88.14</v>
@@ -1560,7 +1572,7 @@
         <v>223.35</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J47">
         <v>237.76</v>
@@ -1574,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C48">
         <v>94.56999999999999</v>
@@ -1586,7 +1598,7 @@
         <v>174.6</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G48">
         <v>0.43</v>
@@ -1609,7 +1621,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C49">
         <v>88.14</v>
@@ -1621,7 +1633,7 @@
         <v>158.32</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J49">
         <v>209.24</v>
@@ -1635,7 +1647,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C50">
         <v>82.43000000000001</v>
@@ -1647,7 +1659,7 @@
         <v>130.9</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J50">
         <v>196.18</v>
@@ -1661,7 +1673,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C51">
         <v>88.14</v>
@@ -1673,7 +1685,7 @@
         <v>158.32</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G51">
         <v>0.6</v>
@@ -1696,7 +1708,7 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C52">
         <v>82.43000000000001</v>
@@ -1708,7 +1720,7 @@
         <v>130.9</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J52">
         <v>183.29</v>
@@ -1722,7 +1734,7 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C53">
         <v>85</v>
@@ -1734,7 +1746,7 @@
         <v>90.47</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J53">
         <v>172.98</v>
@@ -1748,7 +1760,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C54">
         <v>82.43000000000001</v>
@@ -1760,7 +1772,7 @@
         <v>127.74</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G54">
         <v>1.5</v>
@@ -1783,7 +1795,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C55">
         <v>85</v>
@@ -1795,7 +1807,7 @@
         <v>101.56</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J55">
         <v>162.37</v>
@@ -1809,13 +1821,25 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C56">
+        <v>74.70999999999999</v>
       </c>
       <c r="D56">
         <v>164.24</v>
       </c>
+      <c r="E56">
+        <v>89.53</v>
+      </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="J56">
+        <v>156.3</v>
+      </c>
+      <c r="K56">
+        <v>173.06</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1823,7 +1847,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C57">
         <v>85</v>
@@ -1835,7 +1859,7 @@
         <v>84</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G57">
         <v>0.62</v>
@@ -1847,10 +1871,10 @@
         <v>81.43000000000001</v>
       </c>
       <c r="J57">
-        <v>155.84</v>
+        <v>150.74</v>
       </c>
       <c r="K57">
-        <v>171.31</v>
+        <v>167.35</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1858,13 +1882,25 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C58">
+        <v>74.70999999999999</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
+      <c r="E58">
+        <v>73.70999999999999</v>
+      </c>
       <c r="F58" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="J58">
+        <v>145.24</v>
+      </c>
+      <c r="K58">
+        <v>162.44</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1872,13 +1908,25 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="C59">
+        <v>67.29000000000001</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
+      <c r="E59">
+        <v>66.29000000000001</v>
+      </c>
       <c r="F59" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="J59">
+        <v>139.98</v>
+      </c>
+      <c r="K59">
+        <v>158.18</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1886,13 +1934,19 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C60">
+        <v>74.70999999999999</v>
       </c>
       <c r="D60">
         <v>58.81</v>
       </c>
+      <c r="E60">
+        <v>15.91</v>
+      </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G60">
         <v>0.04</v>
@@ -1902,6 +1956,12 @@
       </c>
       <c r="I60">
         <v>2.69</v>
+      </c>
+      <c r="J60">
+        <v>132.22</v>
+      </c>
+      <c r="K60">
+        <v>149.62</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1909,13 +1969,25 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="C61">
+        <v>67.29000000000001</v>
       </c>
       <c r="D61">
         <v>96.16</v>
       </c>
+      <c r="E61">
+        <v>28.88</v>
+      </c>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="J61">
+        <v>126.14</v>
+      </c>
+      <c r="K61">
+        <v>143.35</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1923,13 +1995,127 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D62">
         <v>87.62</v>
       </c>
       <c r="F62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
         <v>68</v>
+      </c>
+      <c r="C63">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="F63" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63">
+        <v>1.51</v>
+      </c>
+      <c r="H63">
+        <v>98.66</v>
+      </c>
+      <c r="I63">
+        <v>73.70999999999999</v>
+      </c>
+      <c r="J63">
+        <v>122.82</v>
+      </c>
+      <c r="K63">
+        <v>140.86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66">
+        <v>111.71</v>
+      </c>
+      <c r="F66" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66">
+        <v>1.42</v>
+      </c>
+      <c r="H66">
+        <v>57.52</v>
+      </c>
+      <c r="I66">
+        <v>38.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67">
+        <v>105.44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="F68" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="76">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -73,6 +73,9 @@
     <t>2021-02-13</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>01 Mar -- 07 Mar 2020</t>
   </si>
   <si>
@@ -230,6 +233,9 @@
   </si>
   <si>
     <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -593,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>14.57</v>
@@ -651,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G2">
         <v>0.63</v>
@@ -668,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>66.56999999999999</v>
@@ -680,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -688,7 +694,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>135</v>
@@ -700,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -708,7 +714,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>137.29</v>
@@ -720,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -728,7 +734,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>133.57</v>
@@ -740,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -748,7 +754,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>129.29</v>
@@ -760,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -768,7 +774,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>96.29000000000001</v>
@@ -780,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -788,7 +794,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>88.43000000000001</v>
@@ -800,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -808,7 +814,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>72.29000000000001</v>
@@ -820,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,7 +834,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>61.86</v>
@@ -840,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -848,7 +854,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>49.71</v>
@@ -860,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -868,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>60.29</v>
@@ -880,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -888,7 +894,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>53.57</v>
@@ -900,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -908,7 +914,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>67.86</v>
@@ -920,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -928,7 +934,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>74.43000000000001</v>
@@ -940,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -948,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>111</v>
@@ -960,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -968,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>122.43</v>
@@ -980,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -988,7 +994,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>149.14</v>
@@ -1000,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1008,7 +1014,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>175.29</v>
@@ -1020,7 +1026,7 @@
         <v>86.67</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1028,7 +1034,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>192</v>
@@ -1040,7 +1046,7 @@
         <v>104.26</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1048,7 +1054,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>215</v>
@@ -1060,7 +1066,7 @@
         <v>116.73</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1068,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>214</v>
@@ -1080,7 +1086,7 @@
         <v>80.88</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1088,7 +1094,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>183.14</v>
@@ -1100,7 +1106,7 @@
         <v>55.74</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1108,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>175.43</v>
@@ -1120,7 +1126,7 @@
         <v>19.62</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1128,7 +1134,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>144.29</v>
@@ -1140,7 +1146,7 @@
         <v>26.38</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1148,7 +1154,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>122.43</v>
@@ -1160,7 +1166,7 @@
         <v>56.16</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1168,7 +1174,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>113.57</v>
@@ -1180,7 +1186,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1188,7 +1194,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>125</v>
@@ -1200,7 +1206,7 @@
         <v>1.51</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1208,7 +1214,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>155.57</v>
@@ -1220,7 +1226,7 @@
         <v>44.64</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1228,7 +1234,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>182.29</v>
@@ -1240,7 +1246,7 @@
         <v>82.44</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1248,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>193.14</v>
@@ -1260,7 +1266,7 @@
         <v>76.75</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1268,7 +1274,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>221</v>
@@ -1280,7 +1286,7 @@
         <v>66.23999999999999</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1288,7 +1294,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>261.43</v>
@@ -1300,7 +1306,7 @@
         <v>117.46</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1308,7 +1314,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>313.86</v>
@@ -1320,7 +1326,7 @@
         <v>152.34</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1328,7 +1334,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>363.43</v>
@@ -1340,7 +1346,7 @@
         <v>209.39</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1348,7 +1354,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>424</v>
@@ -1360,7 +1366,7 @@
         <v>247.39</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1368,7 +1374,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>457.43</v>
@@ -1380,7 +1386,7 @@
         <v>263.37</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1388,7 +1394,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>470.43</v>
@@ -1400,7 +1406,7 @@
         <v>254.74</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1408,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>451.29</v>
@@ -1420,7 +1426,7 @@
         <v>212.04</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1428,7 +1434,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>361.43</v>
@@ -1440,7 +1446,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1448,7 +1454,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>276.14</v>
@@ -1460,7 +1466,7 @@
         <v>37.09</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1468,7 +1474,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>214.14</v>
@@ -1480,7 +1486,7 @@
         <v>130.4</v>
       </c>
       <c r="F43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1488,7 +1494,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>160.86</v>
@@ -1500,7 +1506,7 @@
         <v>193.86</v>
       </c>
       <c r="F44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1508,7 +1514,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>123.43</v>
@@ -1520,7 +1526,7 @@
         <v>230.4</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J45">
         <v>230.4</v>
@@ -1534,7 +1540,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46">
         <v>94.56999999999999</v>
@@ -1546,7 +1552,7 @@
         <v>259.54</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J46">
         <v>244.97</v>
@@ -1560,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47">
         <v>88.14</v>
@@ -1572,7 +1578,7 @@
         <v>223.35</v>
       </c>
       <c r="F47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J47">
         <v>237.76</v>
@@ -1586,7 +1592,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>94.56999999999999</v>
@@ -1598,7 +1604,7 @@
         <v>174.6</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G48">
         <v>0.43</v>
@@ -1621,7 +1627,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49">
         <v>88.14</v>
@@ -1633,7 +1639,7 @@
         <v>158.32</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J49">
         <v>209.24</v>
@@ -1647,7 +1653,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50">
         <v>82.43000000000001</v>
@@ -1659,7 +1665,7 @@
         <v>130.9</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J50">
         <v>196.18</v>
@@ -1673,7 +1679,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51">
         <v>88.14</v>
@@ -1685,7 +1691,7 @@
         <v>158.32</v>
       </c>
       <c r="F51" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G51">
         <v>0.6</v>
@@ -1708,7 +1714,7 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52">
         <v>82.43000000000001</v>
@@ -1720,7 +1726,7 @@
         <v>130.9</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J52">
         <v>183.29</v>
@@ -1734,7 +1740,7 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53">
         <v>85</v>
@@ -1746,7 +1752,7 @@
         <v>90.47</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J53">
         <v>172.98</v>
@@ -1760,7 +1766,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54">
         <v>82.43000000000001</v>
@@ -1772,7 +1778,7 @@
         <v>127.74</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G54">
         <v>1.5</v>
@@ -1795,7 +1801,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55">
         <v>85</v>
@@ -1807,7 +1813,7 @@
         <v>101.56</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J55">
         <v>162.37</v>
@@ -1821,7 +1827,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C56">
         <v>74.70999999999999</v>
@@ -1833,7 +1839,7 @@
         <v>89.53</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J56">
         <v>156.3</v>
@@ -1847,7 +1853,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57">
         <v>85</v>
@@ -1859,7 +1865,7 @@
         <v>84</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G57">
         <v>0.62</v>
@@ -1882,7 +1888,7 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C58">
         <v>74.70999999999999</v>
@@ -1894,7 +1900,7 @@
         <v>73.70999999999999</v>
       </c>
       <c r="F58" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J58">
         <v>145.24</v>
@@ -1908,7 +1914,7 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C59">
         <v>67.29000000000001</v>
@@ -1920,7 +1926,7 @@
         <v>66.29000000000001</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J59">
         <v>139.98</v>
@@ -1934,7 +1940,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C60">
         <v>74.70999999999999</v>
@@ -1946,7 +1952,7 @@
         <v>15.91</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G60">
         <v>0.04</v>
@@ -1969,7 +1975,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C61">
         <v>67.29000000000001</v>
@@ -1981,7 +1987,7 @@
         <v>28.88</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J61">
         <v>126.14</v>
@@ -1995,13 +2001,25 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C62">
+        <v>75.14</v>
       </c>
       <c r="D62">
         <v>87.62</v>
       </c>
+      <c r="E62">
+        <v>12.48</v>
+      </c>
       <c r="F62" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="J62">
+        <v>119.83</v>
+      </c>
+      <c r="K62">
+        <v>136.31</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2009,7 +2027,7 @@
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C63">
         <v>67.29000000000001</v>
@@ -2021,7 +2039,7 @@
         <v>66.29000000000001</v>
       </c>
       <c r="F63" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G63">
         <v>1.51</v>
@@ -2033,10 +2051,10 @@
         <v>73.70999999999999</v>
       </c>
       <c r="J63">
-        <v>122.82</v>
+        <v>117.01</v>
       </c>
       <c r="K63">
-        <v>140.86</v>
+        <v>134.32</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2044,41 +2062,59 @@
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C64">
+        <v>75.14</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
+      <c r="E64">
+        <v>74.14</v>
+      </c>
       <c r="F64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J64">
+        <v>114.87</v>
+      </c>
+      <c r="K64">
+        <v>132.53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>75.14</v>
       </c>
       <c r="D66">
         <v>111.71</v>
       </c>
+      <c r="E66">
+        <v>36.56</v>
+      </c>
       <c r="F66" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G66">
         <v>1.42</v>
@@ -2089,33 +2125,90 @@
       <c r="I66">
         <v>38.7</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66">
+        <v>111.14</v>
+      </c>
+      <c r="K66">
+        <v>128.54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D67">
         <v>105.44</v>
       </c>
       <c r="F67" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D68">
         <v>94.90000000000001</v>
       </c>
       <c r="F68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69">
+        <v>132.63</v>
+      </c>
+      <c r="F69" t="s">
+        <v>74</v>
+      </c>
+      <c r="G69">
+        <v>0.61</v>
+      </c>
+      <c r="H69">
+        <v>10.56</v>
+      </c>
+      <c r="I69">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
         <v>72</v>
+      </c>
+      <c r="D70">
+        <v>116.8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71">
+        <v>117.74</v>
+      </c>
+      <c r="F71" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
